--- a/Input_sheet_V2 - Regression.xlsx
+++ b/Input_sheet_V2 - Regression.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="374">
   <si>
     <t>Execution</t>
   </si>
@@ -969,12 +969,6 @@
     <t>Rework_56</t>
   </si>
   <si>
-    <t>Rework-52</t>
-  </si>
-  <si>
-    <t>Rework_57</t>
-  </si>
-  <si>
     <t>Rework_58</t>
   </si>
   <si>
@@ -1054,6 +1048,96 @@
   </si>
   <si>
     <t>API_19</t>
+  </si>
+  <si>
+    <t>Rework_72</t>
+  </si>
+  <si>
+    <t>971520002069</t>
+  </si>
+  <si>
+    <t>Rework_81</t>
+  </si>
+  <si>
+    <t>Rework_77</t>
+  </si>
+  <si>
+    <t>Rework_82</t>
+  </si>
+  <si>
+    <t>Rework_83</t>
+  </si>
+  <si>
+    <t>Rework_85</t>
+  </si>
+  <si>
+    <t>Rework_86</t>
+  </si>
+  <si>
+    <t>Rework_03_TS-02</t>
+  </si>
+  <si>
+    <t>Rework_03_TS-03</t>
+  </si>
+  <si>
+    <t>Rework_03_TS-04</t>
+  </si>
+  <si>
+    <t>Rework_04</t>
+  </si>
+  <si>
+    <t>Rework_22</t>
+  </si>
+  <si>
+    <t>Rework-101</t>
+  </si>
+  <si>
+    <t>971520002574</t>
+  </si>
+  <si>
+    <t>API_20</t>
+  </si>
+  <si>
+    <t>API_22</t>
+  </si>
+  <si>
+    <t>API_23</t>
+  </si>
+  <si>
+    <t>API_24</t>
+  </si>
+  <si>
+    <t>API_25</t>
+  </si>
+  <si>
+    <t>API_26</t>
+  </si>
+  <si>
+    <t>API_27</t>
+  </si>
+  <si>
+    <t>API_28</t>
+  </si>
+  <si>
+    <t>API_29</t>
+  </si>
+  <si>
+    <t>API_30</t>
+  </si>
+  <si>
+    <t>API_31</t>
+  </si>
+  <si>
+    <t>API_32</t>
+  </si>
+  <si>
+    <t>API_33</t>
+  </si>
+  <si>
+    <t>API_34</t>
+  </si>
+  <si>
+    <t>API_35</t>
   </si>
 </sst>
 </file>
@@ -1726,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z218"/>
+  <dimension ref="A1:Z257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1751,15 +1835,15 @@
     <col min="15" max="15" width="20.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.54296875" customWidth="1"/>
     <col min="17" max="17" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7265625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="36.26953125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="41.26953125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="19.90625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="41.7265625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="5" customFormat="1">
@@ -1838,7 +1922,7 @@
       <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:26" s="22" customFormat="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1865,7 +1949,7 @@
       <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:26" s="22" customFormat="1" ht="14" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1957,7 +2041,7 @@
     </row>
     <row r="6" spans="1:26" s="58" customFormat="1">
       <c r="A6" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>316</v>
@@ -2050,7 +2134,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C8" s="74" t="s">
         <v>40</v>
@@ -2069,10 +2153,10 @@
       <c r="I8" s="76"/>
       <c r="J8" s="77"/>
       <c r="K8" s="75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L8" s="74" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M8" s="74">
         <v>1</v>
@@ -2104,10 +2188,10 @@
     </row>
     <row r="9" spans="1:26" s="78" customFormat="1">
       <c r="A9" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C9" s="74" t="s">
         <v>40</v>
@@ -2126,10 +2210,10 @@
       <c r="I9" s="76"/>
       <c r="J9" s="77"/>
       <c r="K9" s="75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L9" s="74" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M9" s="74">
         <v>1</v>
@@ -2161,10 +2245,10 @@
     </row>
     <row r="10" spans="1:26" s="78" customFormat="1">
       <c r="A10" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C10" s="74" t="s">
         <v>40</v>
@@ -2183,10 +2267,10 @@
       <c r="I10" s="76"/>
       <c r="J10" s="77"/>
       <c r="K10" s="75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M10" s="74">
         <v>1</v>
@@ -2218,10 +2302,10 @@
     </row>
     <row r="11" spans="1:26" s="78" customFormat="1">
       <c r="A11" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C11" s="74" t="s">
         <v>40</v>
@@ -2240,10 +2324,10 @@
       <c r="I11" s="76"/>
       <c r="J11" s="77"/>
       <c r="K11" s="75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L11" s="74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M11" s="74">
         <v>1</v>
@@ -2275,10 +2359,10 @@
     </row>
     <row r="12" spans="1:26" s="78" customFormat="1">
       <c r="A12" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C12" s="74" t="s">
         <v>40</v>
@@ -2297,10 +2381,10 @@
       <c r="I12" s="76"/>
       <c r="J12" s="77"/>
       <c r="K12" s="75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L12" s="74" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M12" s="74">
         <v>1</v>
@@ -2389,7 +2473,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>40</v>
@@ -2438,10 +2522,10 @@
     </row>
     <row r="16" spans="1:26" s="73" customFormat="1">
       <c r="A16" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C16" s="69" t="s">
         <v>40</v>
@@ -2469,10 +2553,10 @@
     </row>
     <row r="17" spans="1:26" s="78" customFormat="1" hidden="1">
       <c r="A17" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C17" s="74" t="s">
         <v>40</v>
@@ -2526,7 +2610,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>40</v>
@@ -2553,7 +2637,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>40</v>
@@ -2580,7 +2664,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>40</v>
@@ -2629,10 +2713,10 @@
     </row>
     <row r="21" spans="1:26" s="73" customFormat="1">
       <c r="A21" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C21" s="69" t="s">
         <v>40</v>
@@ -2658,26 +2742,24 @@
       <c r="N21" s="69"/>
       <c r="O21" s="70"/>
     </row>
-    <row r="22" spans="1:26" s="78" customFormat="1" hidden="1">
+    <row r="22" spans="1:26" s="78" customFormat="1">
       <c r="A22" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="74" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="C22" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="77"/>
+      <c r="D22" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="60"/>
+      <c r="F22" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="60"/>
       <c r="H22" s="76"/>
       <c r="I22" s="76"/>
       <c r="J22" s="77"/>
@@ -2717,13 +2799,13 @@
         <v>28</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="60" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E23" s="60"/>
       <c r="F23" s="65" t="s">
@@ -2744,19 +2826,19 @@
         <v>28</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="E24" s="60"/>
       <c r="F24" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="60"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="67"/>
       <c r="I24" s="67"/>
       <c r="J24" s="64"/>
@@ -2770,20 +2852,24 @@
       <c r="A25" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="E25" s="60"/>
-      <c r="F25" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="64"/>
+      <c r="D25" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="69" t="s">
+        <v>226</v>
+      </c>
       <c r="H25" s="67"/>
       <c r="I25" s="67"/>
       <c r="J25" s="64"/>
@@ -2820,26 +2906,22 @@
     </row>
     <row r="26" spans="1:26" s="73" customFormat="1">
       <c r="A26" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="C26" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="C26" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="69" t="s">
-        <v>226</v>
-      </c>
+      <c r="D26" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" s="60"/>
+      <c r="F26" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="60"/>
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
       <c r="J26" s="72"/>
@@ -2854,13 +2936,13 @@
         <v>28</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="60" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E27" s="60"/>
       <c r="F27" s="65" t="s">
@@ -2881,19 +2963,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="E28" s="60"/>
       <c r="F28" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="60"/>
+      <c r="G28" s="64"/>
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="64"/>
@@ -2903,165 +2985,139 @@
       <c r="N28" s="60"/>
       <c r="O28" s="65"/>
     </row>
-    <row r="29" spans="1:26" s="58" customFormat="1" ht="14" customHeight="1">
+    <row r="29" spans="1:26" s="73" customFormat="1">
       <c r="A29" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="65"/>
-      <c r="R29" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="S29" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="T29" s="66" t="s">
+      <c r="D29" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="U29" s="59"/>
-      <c r="V29" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="W29" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="X29" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y29" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z29" s="62" t="s">
-        <v>175</v>
-      </c>
+      <c r="E29" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="70"/>
     </row>
     <row r="30" spans="1:26" s="58" customFormat="1">
       <c r="A30" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="C30" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="60" t="s">
+      <c r="D30" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="64"/>
+      <c r="F30" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H30" s="65"/>
+      <c r="I30" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="J30" s="64">
+        <v>20</v>
+      </c>
       <c r="K30" s="65"/>
       <c r="L30" s="60"/>
       <c r="M30" s="60"/>
       <c r="N30" s="60"/>
       <c r="O30" s="65"/>
-    </row>
-    <row r="31" spans="1:26" s="58" customFormat="1" hidden="1">
+      <c r="S30" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="U30" s="63"/>
+      <c r="V30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W30" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z30" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" s="73" customFormat="1">
       <c r="A31" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>27</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="E31" s="60"/>
       <c r="F31" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="64"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="65"/>
-      <c r="R31" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="S31" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="T31" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="U31" s="59"/>
-      <c r="V31" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="W31" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="X31" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y31" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z31" s="62" t="s">
-        <v>175</v>
-      </c>
+      <c r="G31" s="60"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="70"/>
     </row>
     <row r="32" spans="1:26" s="58" customFormat="1">
       <c r="A32" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C32" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>44</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="E32" s="60"/>
       <c r="F32" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="60" t="s">
-        <v>228</v>
-      </c>
+      <c r="G32" s="60"/>
       <c r="H32" s="67"/>
       <c r="I32" s="67"/>
       <c r="J32" s="64"/>
@@ -3070,13 +3126,6 @@
       <c r="M32" s="60"/>
       <c r="N32" s="60"/>
       <c r="O32" s="65"/>
-      <c r="T32" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="U32" s="63"/>
-      <c r="Z32" s="68" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="33" spans="1:26" s="58" customFormat="1">
       <c r="A33" s="60" t="s">
@@ -3089,13 +3138,13 @@
         <v>40</v>
       </c>
       <c r="D33" s="60" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="E33" s="60"/>
       <c r="F33" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="60"/>
+      <c r="G33" s="64"/>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
       <c r="J33" s="64"/>
@@ -3105,1073 +3154,1116 @@
       <c r="N33" s="60"/>
       <c r="O33" s="65"/>
     </row>
-    <row r="34" spans="1:26" s="58" customFormat="1">
+    <row r="34" spans="1:26" s="73" customFormat="1">
       <c r="A34" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="C34" s="60" t="s">
+      <c r="B34" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="60" t="s">
-        <v>309</v>
-      </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="65"/>
-    </row>
-    <row r="35" spans="1:26" s="58" customFormat="1" ht="14" customHeight="1">
+      <c r="D34" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="70"/>
+    </row>
+    <row r="35" spans="1:26" s="73" customFormat="1">
       <c r="A35" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="60" t="s">
-        <v>345</v>
+      <c r="B35" s="69" t="s">
+        <v>347</v>
       </c>
       <c r="C35" s="60" t="s">
         <v>40</v>
       </c>
       <c r="D35" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="70"/>
+    </row>
+    <row r="36" spans="1:26" s="58" customFormat="1">
+      <c r="A36" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="C36" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="65"/>
+      <c r="T36" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="U36" s="63"/>
+      <c r="Z36" s="68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" s="73" customFormat="1">
+      <c r="A37" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="60"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="70"/>
+    </row>
+    <row r="38" spans="1:26" s="58" customFormat="1">
+      <c r="A38" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="E38" s="60"/>
+      <c r="F38" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="60"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="65"/>
+    </row>
+    <row r="39" spans="1:26" s="58" customFormat="1">
+      <c r="A39" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="65"/>
-      <c r="R35" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="S35" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="T35" s="66" t="s">
+      <c r="E39" s="60"/>
+      <c r="F39" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="64"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="65"/>
+    </row>
+    <row r="40" spans="1:26" s="73" customFormat="1">
+      <c r="A40" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="U35" s="59"/>
-      <c r="V35" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="X35" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y35" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z35" s="62" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" s="22" customFormat="1">
-      <c r="A36" s="2" t="s">
+      <c r="E40" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="70"/>
+    </row>
+    <row r="41" spans="1:26" s="73" customFormat="1">
+      <c r="A41" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B41" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="1:26" s="22" customFormat="1">
-      <c r="A37" s="2" t="s">
+      <c r="D41" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="70"/>
+    </row>
+    <row r="42" spans="1:26" s="58" customFormat="1" hidden="1">
+      <c r="A42" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B42" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D42" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="65"/>
+      <c r="T42" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="U42" s="63"/>
+      <c r="Z42" s="68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" s="73" customFormat="1">
+      <c r="A43" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="60"/>
+      <c r="F43" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="60"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="69"/>
+      <c r="N43" s="69"/>
+      <c r="O43" s="70"/>
+    </row>
+    <row r="44" spans="1:26" s="58" customFormat="1">
+      <c r="A44" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="E44" s="60"/>
+      <c r="F44" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="60"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="65"/>
+    </row>
+    <row r="45" spans="1:26" s="58" customFormat="1">
+      <c r="A45" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="60" t="s">
         <v>286</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="10"/>
-      <c r="T37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U37" s="7"/>
-      <c r="Z37" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" s="22" customFormat="1">
-      <c r="A38" s="2" t="s">
+      <c r="E45" s="60"/>
+      <c r="F45" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="64"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="65"/>
+    </row>
+    <row r="46" spans="1:26" s="73" customFormat="1">
+      <c r="A46" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B46" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="39" spans="1:26" s="22" customFormat="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="10"/>
-      <c r="R39" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T39" s="12" t="s">
+      <c r="D46" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="U39" s="1"/>
-      <c r="V39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" s="22" customFormat="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="10"/>
-      <c r="T40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U40" s="7"/>
-      <c r="Z40" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" s="35" customFormat="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="32"/>
-      <c r="S41" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T41" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="U41" s="40"/>
-      <c r="V41" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="W41" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="X41" s="42" t="s">
+      <c r="E46" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="Y41" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z41" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" s="35" customFormat="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="32"/>
-      <c r="S42" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T42" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="U42" s="40"/>
-      <c r="V42" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="W42" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="X42" s="42" t="s">
+      <c r="F46" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="69"/>
+      <c r="M46" s="69"/>
+      <c r="N46" s="69"/>
+      <c r="O46" s="70"/>
+    </row>
+    <row r="47" spans="1:26" s="73" customFormat="1">
+      <c r="A47" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="Y42" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z42" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" s="35" customFormat="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="32"/>
-      <c r="S43" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T43" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="U43" s="40"/>
-      <c r="V43" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="W43" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="X43" s="42" t="s">
+      <c r="F47" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="69"/>
+      <c r="M47" s="69"/>
+      <c r="N47" s="69"/>
+      <c r="O47" s="70"/>
+    </row>
+    <row r="48" spans="1:26" s="73" customFormat="1">
+      <c r="A48" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" s="60"/>
+      <c r="F48" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="60"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="69"/>
+      <c r="O48" s="70"/>
+    </row>
+    <row r="49" spans="1:15" s="58" customFormat="1">
+      <c r="A49" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="E49" s="60"/>
+      <c r="F49" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="60"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="65"/>
+    </row>
+    <row r="50" spans="1:15" s="58" customFormat="1">
+      <c r="A50" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="60"/>
+      <c r="F50" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="64"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="65"/>
+    </row>
+    <row r="51" spans="1:15" s="73" customFormat="1">
+      <c r="A51" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="Y43" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z43" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" s="35" customFormat="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="32"/>
-      <c r="S44" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T44" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="U44" s="40"/>
-      <c r="V44" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="W44" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="X44" s="42" t="s">
+      <c r="F51" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="70"/>
+    </row>
+    <row r="52" spans="1:15" s="73" customFormat="1">
+      <c r="A52" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="Y44" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z44" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" s="35" customFormat="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="32"/>
-      <c r="S45" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T45" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="U45" s="40"/>
-      <c r="V45" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="W45" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="X45" s="42" t="s">
+      <c r="F52" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" s="71"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="70"/>
+    </row>
+    <row r="53" spans="1:15" s="73" customFormat="1">
+      <c r="A53" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E53" s="60"/>
+      <c r="F53" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="60"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="70"/>
+    </row>
+    <row r="54" spans="1:15" s="58" customFormat="1">
+      <c r="A54" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="E54" s="60"/>
+      <c r="F54" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="60"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="65"/>
+    </row>
+    <row r="55" spans="1:15" s="58" customFormat="1">
+      <c r="A55" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="E55" s="60"/>
+      <c r="F55" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="64"/>
+      <c r="H55" s="67"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="65"/>
+    </row>
+    <row r="56" spans="1:15" s="73" customFormat="1">
+      <c r="A56" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="Y45" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z45" s="44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" s="30" customFormat="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="27"/>
-    </row>
-    <row r="47" spans="1:26" s="35" customFormat="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="32"/>
-      <c r="R47" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="S47" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T47" s="37" t="s">
+      <c r="F56" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="72"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="69"/>
+      <c r="N56" s="69"/>
+      <c r="O56" s="70"/>
+    </row>
+    <row r="57" spans="1:15" s="73" customFormat="1">
+      <c r="A57" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="U47" s="38"/>
-      <c r="V47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W47" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="X47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y47" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z47" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" s="30" customFormat="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="27"/>
-    </row>
-    <row r="49" spans="1:26" s="35" customFormat="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="32"/>
-      <c r="R49" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="S49" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T49" s="37" t="s">
+      <c r="E57" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="72"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
+      <c r="O57" s="70"/>
+    </row>
+    <row r="58" spans="1:15" s="73" customFormat="1">
+      <c r="A58" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="U49" s="38"/>
-      <c r="V49" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W49" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="X49" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y49" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z49" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" s="30" customFormat="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="27"/>
-    </row>
-    <row r="51" spans="1:26" s="35" customFormat="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="32"/>
-      <c r="R51" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="S51" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T51" s="37" t="s">
+      <c r="E58" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" s="71"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="72"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="69"/>
+      <c r="M58" s="69"/>
+      <c r="N58" s="69"/>
+      <c r="O58" s="70"/>
+    </row>
+    <row r="59" spans="1:15" s="73" customFormat="1">
+      <c r="A59" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="U51" s="38"/>
-      <c r="V51" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W51" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="X51" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y51" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z51" s="39" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" s="30" customFormat="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="27"/>
-    </row>
-    <row r="53" spans="1:26" s="22" customFormat="1">
-      <c r="A53" s="2"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="10"/>
-      <c r="S53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T53" s="2" t="s">
+      <c r="E59" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="H59" s="71"/>
+      <c r="I59" s="71"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="69"/>
+      <c r="M59" s="69"/>
+      <c r="N59" s="69"/>
+      <c r="O59" s="70"/>
+    </row>
+    <row r="60" spans="1:15" s="73" customFormat="1">
+      <c r="A60" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="69"/>
+      <c r="M60" s="69"/>
+      <c r="N60" s="69"/>
+      <c r="O60" s="70"/>
+    </row>
+    <row r="61" spans="1:15" s="73" customFormat="1">
+      <c r="A61" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="U53" s="7"/>
-      <c r="V53" s="13" t="s">
+      <c r="E61" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="W53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X53" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z53" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" s="30" customFormat="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="27"/>
-    </row>
-    <row r="55" spans="1:26" s="30" customFormat="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="27"/>
-    </row>
-    <row r="56" spans="1:26" s="22" customFormat="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="10"/>
-      <c r="T56" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="U56" s="7"/>
-      <c r="Z56" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" s="30" customFormat="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="27"/>
-    </row>
-    <row r="58" spans="1:26" s="30" customFormat="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="27"/>
-    </row>
-    <row r="59" spans="1:26" s="22" customFormat="1" hidden="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="10"/>
-      <c r="T59" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="U59" s="7"/>
-      <c r="Z59" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" s="30" customFormat="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
-    </row>
-    <row r="61" spans="1:26" s="30" customFormat="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="27"/>
-    </row>
-    <row r="62" spans="1:26" s="30" customFormat="1">
-      <c r="A62" s="2"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="27"/>
-    </row>
-    <row r="63" spans="1:26" s="30" customFormat="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="27"/>
-    </row>
-    <row r="64" spans="1:26" s="30" customFormat="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="27"/>
-    </row>
-    <row r="65" spans="1:26" s="30" customFormat="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
-    </row>
-    <row r="66" spans="1:26" s="30" customFormat="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="27"/>
-    </row>
-    <row r="67" spans="1:26" s="30" customFormat="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
-    </row>
-    <row r="68" spans="1:26" s="30" customFormat="1">
-      <c r="A68" s="2"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="27"/>
-    </row>
-    <row r="69" spans="1:26" s="30" customFormat="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="27"/>
-    </row>
-    <row r="70" spans="1:26" s="30" customFormat="1">
-      <c r="A70" s="2"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="27"/>
-    </row>
-    <row r="71" spans="1:26" s="30" customFormat="1">
-      <c r="A71" s="2"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="27"/>
-    </row>
-    <row r="72" spans="1:26" s="30" customFormat="1">
-      <c r="A72" s="2"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="27"/>
-    </row>
-    <row r="73" spans="1:26">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="10"/>
-      <c r="R73" t="s">
+      <c r="F61" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="69"/>
+      <c r="M61" s="69"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="70"/>
+    </row>
+    <row r="62" spans="1:15" s="73" customFormat="1">
+      <c r="A62" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="S73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T73" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="10"/>
-      <c r="R74" t="s">
-        <v>29</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T74" s="12" t="s">
+      <c r="B62" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E62" s="60"/>
+      <c r="F62" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="60"/>
+      <c r="H62" s="71"/>
+      <c r="I62" s="71"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
+      <c r="O62" s="70"/>
+    </row>
+    <row r="63" spans="1:15" s="58" customFormat="1">
+      <c r="A63" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="E63" s="60"/>
+      <c r="F63" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="60"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="65"/>
+    </row>
+    <row r="64" spans="1:15" s="58" customFormat="1">
+      <c r="A64" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="C64" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="E64" s="60"/>
+      <c r="F64" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="64"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="67"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="60"/>
+      <c r="O64" s="65"/>
+    </row>
+    <row r="65" spans="1:26" s="73" customFormat="1">
+      <c r="A65" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="C65" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="U74" s="1"/>
-      <c r="V74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y74" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z74" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="E65" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="G65" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="H65" s="71"/>
+      <c r="I65" s="71"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="69"/>
+      <c r="M65" s="69"/>
+      <c r="N65" s="69"/>
+      <c r="O65" s="70"/>
+    </row>
+    <row r="66" spans="1:26" s="73" customFormat="1">
+      <c r="A66" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="C66" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="H66" s="71"/>
+      <c r="I66" s="71"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="69"/>
+      <c r="M66" s="69"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="70"/>
+    </row>
+    <row r="67" spans="1:26" s="73" customFormat="1">
+      <c r="A67" s="60"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="71"/>
+      <c r="I67" s="71"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="70"/>
+      <c r="L67" s="69"/>
+      <c r="M67" s="69"/>
+      <c r="N67" s="69"/>
+      <c r="O67" s="70"/>
+    </row>
+    <row r="68" spans="1:26" s="73" customFormat="1">
+      <c r="A68" s="60"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="69"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="71"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
+      <c r="O68" s="70"/>
+    </row>
+    <row r="69" spans="1:26" s="73" customFormat="1">
+      <c r="A69" s="60"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="69"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="72"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="69"/>
+      <c r="M69" s="69"/>
+      <c r="N69" s="69"/>
+      <c r="O69" s="70"/>
+    </row>
+    <row r="70" spans="1:26" s="73" customFormat="1">
+      <c r="A70" s="60"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="69"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="72"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="69"/>
+      <c r="M70" s="69"/>
+      <c r="N70" s="69"/>
+      <c r="O70" s="70"/>
+    </row>
+    <row r="71" spans="1:26" s="73" customFormat="1">
+      <c r="A71" s="60"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="69"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="72"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="69"/>
+      <c r="M71" s="69"/>
+      <c r="N71" s="69"/>
+      <c r="O71" s="70"/>
+    </row>
+    <row r="72" spans="1:26" s="73" customFormat="1">
+      <c r="A72" s="60"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="69"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="72"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="69"/>
+      <c r="N72" s="69"/>
+      <c r="O72" s="70"/>
+    </row>
+    <row r="73" spans="1:26" s="73" customFormat="1">
+      <c r="A73" s="60"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="71"/>
+      <c r="I73" s="71"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="70"/>
+    </row>
+    <row r="74" spans="1:26" s="73" customFormat="1">
+      <c r="A74" s="60"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="71"/>
+      <c r="I74" s="71"/>
+      <c r="J74" s="72"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="70"/>
+    </row>
+    <row r="75" spans="1:26" s="22" customFormat="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4179,7 +4271,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="10"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="10"/>
+      <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="8"/>
       <c r="K75" s="10"/>
@@ -4187,30 +4279,8 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="10"/>
-      <c r="S75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U75" s="7"/>
-      <c r="V75" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X75" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y75" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z75" s="21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26">
+    </row>
+    <row r="76" spans="1:26" s="22" customFormat="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4218,7 +4288,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="10"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="10"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="8"/>
       <c r="K76" s="10"/>
@@ -4226,38 +4296,23 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="10"/>
-      <c r="S76" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="T76" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="U76" s="7"/>
-      <c r="V76" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X76" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y76" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="Z76" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" s="22" customFormat="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="8"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="10"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="10"/>
+      <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="8"/>
       <c r="K77" s="10"/>
@@ -4265,26 +4320,13 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="10"/>
-      <c r="S77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="U77" s="7"/>
-      <c r="W77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z77" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26">
+    </row>
+    <row r="78" spans="1:26" s="22" customFormat="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="8"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="10"/>
       <c r="G78" s="8"/>
       <c r="H78" s="15"/>
@@ -4295,22 +4337,40 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="10"/>
-      <c r="T78" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="U78" s="7"/>
-      <c r="Z78" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="R78" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U78" s="1"/>
+      <c r="V78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z78" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" s="22" customFormat="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="8"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="8"/>
@@ -4320,902 +4380,1894 @@
       <c r="N79" s="2"/>
       <c r="O79" s="10"/>
       <c r="T79" s="2" t="s">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="U79" s="7"/>
       <c r="Z79" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" s="35" customFormat="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="32"/>
+      <c r="S80" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T80" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="U80" s="40"/>
+      <c r="V80" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W80" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X80" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y80" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z80" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" s="35" customFormat="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="32"/>
+      <c r="S81" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T81" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="U81" s="40"/>
+      <c r="V81" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W81" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X81" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y81" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z81" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" s="35" customFormat="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="32"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="32"/>
+      <c r="S82" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T82" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="U82" s="40"/>
+      <c r="V82" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W82" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X82" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y82" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z82" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" s="35" customFormat="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="32"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="32"/>
+      <c r="S83" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T83" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="U83" s="40"/>
+      <c r="V83" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W83" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X83" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y83" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z83" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" s="35" customFormat="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="32"/>
+      <c r="S84" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="T84" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="U84" s="40"/>
+      <c r="V84" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W84" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X84" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y84" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z84" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" s="30" customFormat="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="27"/>
+    </row>
+    <row r="86" spans="1:26" s="35" customFormat="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="32"/>
+      <c r="R86" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S86" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T86" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U86" s="38"/>
+      <c r="V86" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W86" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="X86" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y86" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z86" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" s="30" customFormat="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="27"/>
+    </row>
+    <row r="88" spans="1:26" s="35" customFormat="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="32"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="32"/>
+      <c r="R88" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S88" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T88" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U88" s="38"/>
+      <c r="V88" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W88" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="X88" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y88" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z88" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" s="30" customFormat="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="27"/>
+    </row>
+    <row r="90" spans="1:26" s="35" customFormat="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="32"/>
+      <c r="R90" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S90" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="T90" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="U90" s="38"/>
+      <c r="V90" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W90" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="X90" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y90" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z90" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" s="30" customFormat="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="27"/>
+    </row>
+    <row r="92" spans="1:26" s="22" customFormat="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="10"/>
+      <c r="S92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U92" s="7"/>
+      <c r="V92" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X92" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y92" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z92" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" s="30" customFormat="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="26"/>
+      <c r="O93" s="27"/>
+    </row>
+    <row r="94" spans="1:26" s="30" customFormat="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="27"/>
+    </row>
+    <row r="95" spans="1:26" s="22" customFormat="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="10"/>
+      <c r="T95" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U95" s="7"/>
+      <c r="Z95" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="10"/>
-      <c r="T80" s="2" t="s">
+    <row r="96" spans="1:26" s="30" customFormat="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="27"/>
+    </row>
+    <row r="97" spans="1:26" s="30" customFormat="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="29"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="27"/>
+    </row>
+    <row r="98" spans="1:26" s="22" customFormat="1" hidden="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="10"/>
+      <c r="T98" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U98" s="7"/>
+      <c r="Z98" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" s="30" customFormat="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="27"/>
+    </row>
+    <row r="100" spans="1:26" s="30" customFormat="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="27"/>
+    </row>
+    <row r="101" spans="1:26" s="30" customFormat="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="29"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="27"/>
+    </row>
+    <row r="102" spans="1:26" s="30" customFormat="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="27"/>
+    </row>
+    <row r="103" spans="1:26" s="30" customFormat="1">
+      <c r="A103" s="2"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="27"/>
+    </row>
+    <row r="104" spans="1:26" s="30" customFormat="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="27"/>
+    </row>
+    <row r="105" spans="1:26" s="30" customFormat="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="29"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="26"/>
+      <c r="N105" s="26"/>
+      <c r="O105" s="27"/>
+    </row>
+    <row r="106" spans="1:26" s="30" customFormat="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="26"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="27"/>
+    </row>
+    <row r="107" spans="1:26" s="30" customFormat="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="29"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="27"/>
+    </row>
+    <row r="108" spans="1:26" s="30" customFormat="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="29"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="27"/>
+    </row>
+    <row r="109" spans="1:26" s="30" customFormat="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="27"/>
+    </row>
+    <row r="110" spans="1:26" s="30" customFormat="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="27"/>
+    </row>
+    <row r="111" spans="1:26" s="30" customFormat="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="29"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="26"/>
+      <c r="N111" s="26"/>
+      <c r="O111" s="27"/>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="10"/>
+      <c r="R112" t="s">
+        <v>28</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T112" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="10"/>
+      <c r="R113" t="s">
+        <v>29</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T113" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="U113" s="1"/>
+      <c r="V113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X113" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y113" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z113" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="10"/>
+      <c r="S114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T114" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U114" s="7"/>
+      <c r="V114" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W114" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X114" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y114" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z114" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="10"/>
+      <c r="S115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T115" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U115" s="7"/>
+      <c r="V115" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="W115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X115" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y115" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z115" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="10"/>
+      <c r="S116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T116" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U116" s="7"/>
+      <c r="W116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z116" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="10"/>
+      <c r="T117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="U117" s="7"/>
+      <c r="Z117" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="10"/>
+      <c r="T118" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="U118" s="7"/>
+      <c r="Z118" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="10"/>
+      <c r="T119" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="U80" s="7"/>
-      <c r="Z80" s="17" t="s">
+      <c r="U119" s="7"/>
+      <c r="Z119" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="20:26">
-      <c r="T81" s="2" t="s">
+    <row r="120" spans="1:26">
+      <c r="T120" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="U81" s="7"/>
-      <c r="Z81" s="17" t="s">
+      <c r="U120" s="7"/>
+      <c r="Z120" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="20:26">
-      <c r="T82" s="52" t="s">
+    <row r="121" spans="1:26">
+      <c r="T121" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="U82" s="7"/>
-      <c r="Z82" s="17" t="s">
+      <c r="U121" s="7"/>
+      <c r="Z121" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="20:26">
-      <c r="T83" s="52" t="s">
+    <row r="122" spans="1:26">
+      <c r="T122" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="Z83" s="17" t="s">
+      <c r="Z122" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="20:26">
-      <c r="T84" s="52" t="s">
+    <row r="123" spans="1:26">
+      <c r="T123" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="U84" s="1" t="s">
+      <c r="U123" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Z84" s="17" t="s">
+      <c r="Z123" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="20:26">
-      <c r="T85" s="52" t="s">
+    <row r="124" spans="1:26">
+      <c r="T124" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="U85" s="24" t="s">
+      <c r="U124" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="Z85" s="17" t="s">
+      <c r="Z124" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="20:26">
-      <c r="T86" s="52" t="s">
+    <row r="125" spans="1:26">
+      <c r="T125" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="U86" s="24" t="s">
+      <c r="U125" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="Z86" s="17" t="s">
+      <c r="Z125" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="20:26">
-      <c r="T87" s="52" t="s">
+    <row r="126" spans="1:26">
+      <c r="T126" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="U87" s="24" t="s">
+      <c r="U126" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="Z87" s="17" t="s">
+      <c r="Z126" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="20:26" ht="15" thickBot="1">
-      <c r="T88" s="52" t="s">
+    <row r="127" spans="1:26" ht="15" thickBot="1">
+      <c r="T127" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="U88" s="24" t="s">
+      <c r="U127" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="Z88" s="17" t="s">
+      <c r="Z127" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="20:26" ht="15" thickBot="1">
-      <c r="T89" s="52" t="s">
+    <row r="128" spans="1:26" ht="15" thickBot="1">
+      <c r="T128" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="U89" s="24" t="s">
+      <c r="U128" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="Z89" s="18" t="s">
+      <c r="Z128" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="20:26" ht="15" thickBot="1">
-      <c r="T90" s="52" t="s">
+    <row r="129" spans="20:26" ht="15" thickBot="1">
+      <c r="T129" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="U90" s="24" t="s">
+      <c r="U129" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="Z90" s="19" t="s">
+      <c r="Z129" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="91" spans="20:26" ht="15" thickBot="1">
-      <c r="T91" s="52" t="s">
+    <row r="130" spans="20:26" ht="15" thickBot="1">
+      <c r="T130" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="U91" s="24" t="s">
+      <c r="U130" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="Z91" s="19" t="s">
+      <c r="Z130" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="20:26" ht="15" thickBot="1">
-      <c r="T92" s="52" t="s">
+    <row r="131" spans="20:26" ht="15" thickBot="1">
+      <c r="T131" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="U92" s="25" t="s">
+      <c r="U131" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="Z92" s="19" t="s">
+      <c r="Z131" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="93" spans="20:26" ht="15" thickBot="1">
-      <c r="T93" s="52" t="s">
+    <row r="132" spans="20:26" ht="15" thickBot="1">
+      <c r="T132" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="U93" s="24" t="s">
+      <c r="U132" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="Z93" s="19" t="s">
+      <c r="Z132" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="20:26" ht="15" thickBot="1">
-      <c r="T94" s="52" t="s">
+    <row r="133" spans="20:26" ht="15" thickBot="1">
+      <c r="T133" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="U94" s="24" t="s">
+      <c r="U133" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="Z94" s="19" t="s">
+      <c r="Z133" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="20:26" ht="15" thickBot="1">
-      <c r="T95" s="48" t="s">
+    <row r="134" spans="20:26" ht="15" thickBot="1">
+      <c r="T134" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="U95" s="24" t="s">
+      <c r="U134" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="Z95" s="19" t="s">
+      <c r="Z134" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="96" spans="20:26" ht="15" thickBot="1">
-      <c r="T96" s="48" t="s">
+    <row r="135" spans="20:26" ht="15" thickBot="1">
+      <c r="T135" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="U96" s="24" t="s">
+      <c r="U135" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="Z96" s="20" t="s">
+      <c r="Z135" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="20:26" ht="15" thickBot="1">
-      <c r="T97" s="48" t="s">
+    <row r="136" spans="20:26" ht="15" thickBot="1">
+      <c r="T136" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="U97" s="24" t="s">
+      <c r="U136" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="Z97" s="20" t="s">
+      <c r="Z136" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="20:26" ht="15" thickBot="1">
-      <c r="U98" s="24" t="s">
+    <row r="137" spans="20:26" ht="15" thickBot="1">
+      <c r="U137" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="Z98" s="20" t="s">
+      <c r="Z137" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="20:26" ht="15" thickBot="1">
-      <c r="U99" s="24" t="s">
+    <row r="138" spans="20:26" ht="15" thickBot="1">
+      <c r="U138" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="Z99" s="20" t="s">
+      <c r="Z138" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="20:26" ht="15" thickBot="1">
-      <c r="U100" s="24" t="s">
+    <row r="139" spans="20:26" ht="15" thickBot="1">
+      <c r="U139" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="Z100" s="20" t="s">
+      <c r="Z139" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="20:26" ht="15" thickBot="1">
-      <c r="U101" s="24" t="s">
+    <row r="140" spans="20:26" ht="15" thickBot="1">
+      <c r="U140" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="Z101" s="20" t="s">
+      <c r="Z140" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="20:26" ht="15" thickBot="1">
-      <c r="Z102" s="20" t="s">
+    <row r="141" spans="20:26" ht="15" thickBot="1">
+      <c r="Z141" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="103" spans="20:26" ht="15" thickBot="1">
-      <c r="Z103" s="20" t="s">
+    <row r="142" spans="20:26" ht="15" thickBot="1">
+      <c r="Z142" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="20:26" ht="15" thickBot="1">
-      <c r="Z104" s="20" t="s">
+    <row r="143" spans="20:26" ht="15" thickBot="1">
+      <c r="Z143" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="20:26" ht="15" thickBot="1">
-      <c r="Z105" s="20" t="s">
+    <row r="144" spans="20:26" ht="15" thickBot="1">
+      <c r="Z144" s="20" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="20:26" ht="15" thickBot="1">
-      <c r="Z106" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="20:26" ht="15" thickBot="1">
-      <c r="Z107" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="20:26" ht="15" thickBot="1">
-      <c r="Z108" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="109" spans="20:26" ht="15" thickBot="1">
-      <c r="Z109" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="110" spans="20:26" ht="15" thickBot="1">
-      <c r="Z110" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="20:26" ht="15" thickBot="1">
-      <c r="Z111" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" spans="20:26" ht="15" thickBot="1">
-      <c r="Z112" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="113" spans="26:26" ht="15" thickBot="1">
-      <c r="Z113" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" spans="26:26" ht="15" thickBot="1">
-      <c r="Z114" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="115" spans="26:26" ht="15" thickBot="1">
-      <c r="Z115" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="116" spans="26:26" ht="15" thickBot="1">
-      <c r="Z116" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="26:26" ht="15" thickBot="1">
-      <c r="Z117" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="26:26" ht="15" thickBot="1">
-      <c r="Z118" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="119" spans="26:26" ht="15" thickBot="1">
-      <c r="Z119" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="120" spans="26:26" ht="15" thickBot="1">
-      <c r="Z120" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="26:26" ht="15" thickBot="1">
-      <c r="Z121" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="26:26" ht="15" thickBot="1">
-      <c r="Z122" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="26:26" ht="15" thickBot="1">
-      <c r="Z123" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="124" spans="26:26" ht="15" thickBot="1">
-      <c r="Z124" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="125" spans="26:26" ht="15" thickBot="1">
-      <c r="Z125" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="126" spans="26:26" ht="15" thickBot="1">
-      <c r="Z126" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="127" spans="26:26" ht="15" thickBot="1">
-      <c r="Z127" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="128" spans="26:26" ht="15" thickBot="1">
-      <c r="Z128" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="129" spans="26:26" ht="15" thickBot="1">
-      <c r="Z129" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="130" spans="26:26" ht="15" thickBot="1">
-      <c r="Z130" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="131" spans="26:26" ht="15" thickBot="1">
-      <c r="Z131" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="26:26" ht="15" thickBot="1">
-      <c r="Z132" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="133" spans="26:26" ht="15" thickBot="1">
-      <c r="Z133" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="26:26" ht="15" thickBot="1">
-      <c r="Z134" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="135" spans="26:26" ht="15" thickBot="1">
-      <c r="Z135" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="26:26" ht="15" thickBot="1">
-      <c r="Z136" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="26:26" ht="15" thickBot="1">
-      <c r="Z137" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="138" spans="26:26" ht="15" thickBot="1">
-      <c r="Z138" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="139" spans="26:26" ht="15" thickBot="1">
-      <c r="Z139" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="140" spans="26:26" ht="15" thickBot="1">
-      <c r="Z140" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="141" spans="26:26" ht="15" thickBot="1">
-      <c r="Z141" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="142" spans="26:26" ht="15" thickBot="1">
-      <c r="Z142" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="143" spans="26:26" ht="15" thickBot="1">
-      <c r="Z143" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="144" spans="26:26" ht="15" thickBot="1">
-      <c r="Z144" s="20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="145" spans="26:26" ht="15" thickBot="1">
       <c r="Z145" s="20" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="26:26" ht="15" thickBot="1">
       <c r="Z146" s="20" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="26:26" ht="15" thickBot="1">
       <c r="Z147" s="20" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="26:26" ht="15" thickBot="1">
       <c r="Z148" s="20" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="26:26" ht="15" thickBot="1">
       <c r="Z149" s="20" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="26:26" ht="15" thickBot="1">
       <c r="Z150" s="20" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151" spans="26:26" ht="15" thickBot="1">
       <c r="Z151" s="20" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="26:26" ht="15" thickBot="1">
       <c r="Z152" s="20" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="26:26" ht="15" thickBot="1">
       <c r="Z153" s="20" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="26:26" ht="15" thickBot="1">
       <c r="Z154" s="20" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="26:26" ht="15" thickBot="1">
       <c r="Z155" s="20" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="26:26" ht="15" thickBot="1">
       <c r="Z156" s="20" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="26:26" ht="15" thickBot="1">
       <c r="Z157" s="20" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="26:26" ht="15" thickBot="1">
       <c r="Z158" s="20" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="26:26" ht="15" thickBot="1">
       <c r="Z159" s="20" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="26:26" ht="15" thickBot="1">
       <c r="Z160" s="20" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="26:26" ht="15" thickBot="1">
       <c r="Z161" s="20" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="26:26" ht="15" thickBot="1">
       <c r="Z162" s="20" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="26:26" ht="15" thickBot="1">
       <c r="Z163" s="20" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="164" spans="26:26" ht="15" thickBot="1">
       <c r="Z164" s="20" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="26:26" ht="15" thickBot="1">
       <c r="Z165" s="20" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="26:26" ht="15" thickBot="1">
       <c r="Z166" s="20" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="167" spans="26:26" ht="15" thickBot="1">
       <c r="Z167" s="20" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="26:26" ht="15" thickBot="1">
       <c r="Z168" s="20" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="26:26" ht="15" thickBot="1">
       <c r="Z169" s="20" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="26:26" ht="15" thickBot="1">
       <c r="Z170" s="20" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="26:26" ht="15" thickBot="1">
       <c r="Z171" s="20" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="26:26" ht="15" thickBot="1">
       <c r="Z172" s="20" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="26:26" ht="15" thickBot="1">
       <c r="Z173" s="20" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="26:26" ht="15" thickBot="1">
       <c r="Z174" s="20" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="26:26" ht="15" thickBot="1">
       <c r="Z175" s="20" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="26:26" ht="15" thickBot="1">
       <c r="Z176" s="20" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="26:26" ht="15" thickBot="1">
       <c r="Z177" s="20" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="26:26" ht="15" thickBot="1">
       <c r="Z178" s="20" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="26:26" ht="15" thickBot="1">
       <c r="Z179" s="20" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="26:26" ht="15" thickBot="1">
       <c r="Z180" s="20" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="181" spans="26:26" ht="15" thickBot="1">
       <c r="Z181" s="20" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
     </row>
     <row r="182" spans="26:26" ht="15" thickBot="1">
       <c r="Z182" s="20" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" spans="26:26" ht="15" thickBot="1">
       <c r="Z183" s="20" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="26:26" ht="15" thickBot="1">
       <c r="Z184" s="20" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="26:26" ht="15" thickBot="1">
       <c r="Z185" s="20" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="26:26" ht="15" thickBot="1">
       <c r="Z186" s="20" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="26:26" ht="15" thickBot="1">
       <c r="Z187" s="20" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="188" spans="26:26" ht="15" thickBot="1">
       <c r="Z188" s="20" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="189" spans="26:26" ht="15" thickBot="1">
       <c r="Z189" s="20" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
     </row>
     <row r="190" spans="26:26" ht="15" thickBot="1">
       <c r="Z190" s="20" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="191" spans="26:26" ht="15" thickBot="1">
       <c r="Z191" s="20" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="192" spans="26:26" ht="15" thickBot="1">
       <c r="Z192" s="20" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="26:26" ht="15" thickBot="1">
       <c r="Z193" s="20" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="194" spans="26:26" ht="15" thickBot="1">
       <c r="Z194" s="20" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="26:26" ht="15" thickBot="1">
       <c r="Z195" s="20" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="196" spans="26:26" ht="15" thickBot="1">
       <c r="Z196" s="20" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="197" spans="26:26" ht="15" thickBot="1">
       <c r="Z197" s="20" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="26:26" ht="15" thickBot="1">
       <c r="Z198" s="20" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="199" spans="26:26" ht="15" thickBot="1">
       <c r="Z199" s="20" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="200" spans="26:26" ht="15" thickBot="1">
       <c r="Z200" s="20" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
     </row>
     <row r="201" spans="26:26" ht="15" thickBot="1">
       <c r="Z201" s="20" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="202" spans="26:26" ht="15" thickBot="1">
       <c r="Z202" s="20" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="203" spans="26:26" ht="15" thickBot="1">
       <c r="Z203" s="20" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="204" spans="26:26" ht="15" thickBot="1">
       <c r="Z204" s="20" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="205" spans="26:26" ht="15" thickBot="1">
       <c r="Z205" s="20" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="26:26" ht="15" thickBot="1">
       <c r="Z206" s="20" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="207" spans="26:26" ht="15" thickBot="1">
       <c r="Z207" s="20" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="26:26" ht="15" thickBot="1">
       <c r="Z208" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="209" spans="26:26" ht="15" thickBot="1">
+      <c r="Z209" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="210" spans="26:26" ht="15" thickBot="1">
+      <c r="Z210" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="211" spans="26:26" ht="15" thickBot="1">
+      <c r="Z211" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="212" spans="26:26" ht="15" thickBot="1">
+      <c r="Z212" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="213" spans="26:26" ht="15" thickBot="1">
+      <c r="Z213" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="214" spans="26:26" ht="15" thickBot="1">
+      <c r="Z214" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="215" spans="26:26" ht="15" thickBot="1">
+      <c r="Z215" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="216" spans="26:26" ht="15" thickBot="1">
+      <c r="Z216" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="217" spans="26:26" ht="15" thickBot="1">
+      <c r="Z217" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="218" spans="26:26" ht="15" thickBot="1">
+      <c r="Z218" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="219" spans="26:26" ht="15" thickBot="1">
+      <c r="Z219" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="26:26" ht="15" thickBot="1">
+      <c r="Z220" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="221" spans="26:26" ht="15" thickBot="1">
+      <c r="Z221" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="222" spans="26:26" ht="15" thickBot="1">
+      <c r="Z222" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="223" spans="26:26" ht="15" thickBot="1">
+      <c r="Z223" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="224" spans="26:26" ht="15" thickBot="1">
+      <c r="Z224" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="225" spans="26:26" ht="15" thickBot="1">
+      <c r="Z225" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="226" spans="26:26" ht="15" thickBot="1">
+      <c r="Z226" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="227" spans="26:26" ht="15" thickBot="1">
+      <c r="Z227" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="228" spans="26:26" ht="15" thickBot="1">
+      <c r="Z228" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="229" spans="26:26" ht="15" thickBot="1">
+      <c r="Z229" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="230" spans="26:26" ht="15" thickBot="1">
+      <c r="Z230" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="231" spans="26:26" ht="15" thickBot="1">
+      <c r="Z231" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="232" spans="26:26" ht="15" thickBot="1">
+      <c r="Z232" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="233" spans="26:26" ht="15" thickBot="1">
+      <c r="Z233" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="234" spans="26:26" ht="15" thickBot="1">
+      <c r="Z234" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="235" spans="26:26" ht="15" thickBot="1">
+      <c r="Z235" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="236" spans="26:26" ht="15" thickBot="1">
+      <c r="Z236" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="237" spans="26:26" ht="15" thickBot="1">
+      <c r="Z237" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="238" spans="26:26" ht="15" thickBot="1">
+      <c r="Z238" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="239" spans="26:26" ht="15" thickBot="1">
+      <c r="Z239" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="240" spans="26:26" ht="15" thickBot="1">
+      <c r="Z240" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="241" spans="26:26" ht="15" thickBot="1">
+      <c r="Z241" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="242" spans="26:26" ht="15" thickBot="1">
+      <c r="Z242" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="243" spans="26:26" ht="15" thickBot="1">
+      <c r="Z243" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="244" spans="26:26" ht="15" thickBot="1">
+      <c r="Z244" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="245" spans="26:26" ht="15" thickBot="1">
+      <c r="Z245" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="246" spans="26:26" ht="15" thickBot="1">
+      <c r="Z246" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="209" spans="26:26">
-      <c r="Z209" s="45" t="s">
+    <row r="247" spans="26:26" ht="15" thickBot="1">
+      <c r="Z247" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="248" spans="26:26">
+      <c r="Z248" s="45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="26:26">
-      <c r="Z210" s="2" t="s">
+    <row r="249" spans="26:26">
+      <c r="Z249" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="211" spans="26:26">
-      <c r="Z211" s="2" t="s">
+    <row r="250" spans="26:26">
+      <c r="Z250" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="212" spans="26:26">
-      <c r="Z212" s="2" t="s">
+    <row r="251" spans="26:26">
+      <c r="Z251" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="213" spans="26:26">
-      <c r="Z213" s="2" t="s">
+    <row r="252" spans="26:26">
+      <c r="Z252" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="214" spans="26:26">
-      <c r="Z214" s="2" t="s">
+    <row r="253" spans="26:26">
+      <c r="Z253" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="215" spans="26:26">
-      <c r="Z215" s="2" t="s">
+    <row r="254" spans="26:26">
+      <c r="Z254" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="216" spans="26:26">
-      <c r="Z216" s="22" t="s">
+    <row r="255" spans="26:26">
+      <c r="Z255" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="26:26">
-      <c r="Z217" s="22" t="s">
+    <row r="256" spans="26:26">
+      <c r="Z256" s="22" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="26:26">
-      <c r="Z218" s="46" t="s">
+    <row r="257" spans="26:26">
+      <c r="Z257" s="46" t="s">
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="22">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E76 E41:E45">
-      <formula1>$W$75:$W$77</formula1>
+  <dataValidations count="23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E80:E84">
+      <formula1>$W$114:$W$116</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E74 E29 E20 E7 E4:E5 E59 E56 E51 E47 E79 E39 E49 E15 E25 E35">
-      <formula1>$Y$75:$Y$76</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E113 E55 E45 E33 E20 E24 E15 E88 E78 E118 E86 E90 E95 E98 E4:E5 E7 E28 E39 E50 E64">
+      <formula1>$Y$114:$Y$115</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E73">
-      <formula1>$S$74:$S$77</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E112">
+      <formula1>$S$113:$S$116</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E75 E53">
-      <formula1>$U$85:$U$101</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E114 E92">
+      <formula1>$U$124:$U$140</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E80 E27:E28 E18:E19 E13:E14 E52 E57:E58 E50 E48 E2:E3 E40 E36:E38 E46 E54:E55 E60:E72 E23:E24 E33:E34">
-      <formula1>$V$75</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E119 E53:E54 E43:E44 E31:E32 E26:E27 E18:E19 E99:E111 E93:E94 E85 E75:E77 E79 E2:E3 E87 E89 E96:E97 E91 E13:E14 E22:E23 E37:E38 E48:E49 E62:E63">
+      <formula1>$V$114</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A5 A27:A29 A18:A20 A7 A33:A1048576 A13:A15 A23:A25">
-      <formula1>$R$73:$R$74</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A75:A1048576 A1:A66">
+      <formula1>$R$112:$R$113</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D27:D29 D18:D20 D7 D33:D1048576 D13:D15 D23:D25">
-      <formula1>$T$74:$T$97</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D53:D55 D43:D45 D31:D33 D22:D24 D13:D15 D75:D1048576 D7 D18:D20 D26:D28 D37:D39 D48:D50 D62:D64">
+      <formula1>$T$113:$T$136</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G5 G27:G29 G18:G20 G7 G33:G1048576 G13:G15 G23:G25">
-      <formula1>$Z$81:$Z$218</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G5 G53:G55 G43:G45 G31:G33 G22:G24 G13:G15 G75:G1048576 G7 G18:G20 G26:G28 G37:G39 G48:G50 G62:G64">
+      <formula1>$Z$120:$Z$257</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G30:G32">
-      <formula1>$Z$74:$Z$211</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
+      <formula1>$Z$113:$Z$250</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D30:D32">
-      <formula1>$T$67:$T$74</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
+      <formula1>$T$106:$T$113</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A30:A32">
-      <formula1>$R$66:$R$67</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30 E6 E32">
-      <formula1>$V$68</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31">
-      <formula1>$Y$68:$Y$69</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
+      <formula1>$V$107</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G12">
+      <formula1>$Z$105:$Z$242</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12">
+      <formula1>$T$98:$T$105</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E12">
+      <formula1>$W$99:$W$101</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G17 G21 G25">
+      <formula1>$Z$99:$Z$236</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D21 D25">
+      <formula1>$T$92:$T$99</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E16 E25">
+      <formula1>$V$93</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17">
+      <formula1>$Y$93:$Y$94</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G30 G34:G36 G51:G52 G40:G42 G46:G47 G56:G61 G65:G74">
       <formula1>$Z$66:$Z$203</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12">
-      <formula1>$T$59:$T$66</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D30 D34:D36 D51:D52 D40:D42 D46:D47 D56:D61 D65:D74">
+      <formula1>$T$56:$T$66</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A8:A12">
-      <formula1>$R$58:$R$59</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A67:A74">
+      <formula1>$R$52:$R$56</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E12">
-      <formula1>$W$60:$W$62</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34 E40 E46:E47 E36 E29:E30 E42 E51:E52 E56:E61 E65:E74">
+      <formula1>$V$57</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G17 G26 G21:G22">
-      <formula1>$Z$60:$Z$197</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D26 D21:D22">
-      <formula1>$T$53:$T$60</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A16:A17 A26 A21:A22">
-      <formula1>$R$52:$R$53</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E26 E16">
-      <formula1>$V$54</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17 E22">
-      <formula1>$Y$54:$Y$55</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E35">
+      <formula1>$Y$57:$Y$58</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input_sheet_V2 - Regression.xlsx
+++ b/Input_sheet_V2 - Regression.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="383">
   <si>
     <t>Execution</t>
   </si>
@@ -1138,6 +1138,33 @@
   </si>
   <si>
     <t>API_35</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>API_Update_IMSI</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>attributeName</t>
+  </si>
+  <si>
+    <t>IMSI</t>
+  </si>
+  <si>
+    <t>attributeUpdateAction</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>attributeValueString</t>
+  </si>
+  <si>
+    <t>424030046672431</t>
   </si>
 </sst>
 </file>
@@ -1812,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A66"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5581,6 +5608,9 @@
       </c>
     </row>
     <row r="137" spans="20:26" ht="15" thickBot="1">
+      <c r="T137" s="48" t="s">
+        <v>375</v>
+      </c>
       <c r="U137" s="24" t="s">
         <v>221</v>
       </c>
@@ -6199,7 +6229,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="23">
+  <dataValidations count="19">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115 E80:E84">
       <formula1>$W$114:$W$116</formula1>
     </dataValidation>
@@ -6218,17 +6248,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A75:A1048576 A1:A66">
       <formula1>$R$112:$R$113</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D53:D55 D43:D45 D31:D33 D22:D24 D13:D15 D75:D1048576 D7 D18:D20 D26:D28 D37:D39 D48:D50 D62:D64">
-      <formula1>$T$113:$T$136</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G5 G53:G55 G43:G45 G31:G33 G22:G24 G13:G15 G75:G1048576 G7 G18:G20 G26:G28 G37:G39 G48:G50 G62:G64">
       <formula1>$Z$120:$Z$257</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6">
       <formula1>$Z$113:$Z$250</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>$T$106:$T$113</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6">
       <formula1>$V$107</formula1>
@@ -6236,17 +6260,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G12">
       <formula1>$Z$105:$Z$242</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12">
-      <formula1>$T$98:$T$105</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E12">
       <formula1>$W$99:$W$101</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G16:G17 G21 G25">
       <formula1>$Z$99:$Z$236</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:D17 D21 D25">
-      <formula1>$T$92:$T$99</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21 E16 E25">
       <formula1>$V$93</formula1>
@@ -6257,9 +6275,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:G30 G34:G36 G51:G52 G40:G42 G46:G47 G56:G61 G65:G74">
       <formula1>$Z$66:$Z$203</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D30 D34:D36 D51:D52 D40:D42 D46:D47 D56:D61 D65:D74">
-      <formula1>$T$56:$T$66</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A67:A74">
       <formula1>$R$52:$R$56</formula1>
     </dataValidation>
@@ -6268,6 +6283,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41 E35">
       <formula1>$Y$57:$Y$58</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>$T$113:$T$137</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6280,7 +6298,7 @@
   <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6297,7 +6315,7 @@
     <col min="10" max="10" width="26.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.1796875" style="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.54296875" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="22"/>
   </cols>
   <sheetData>
@@ -6495,7 +6513,7 @@
       <c r="L6" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="51">
         <v>1</v>
       </c>
     </row>
@@ -6618,7 +6636,7 @@
       <c r="L10" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="51">
         <v>1</v>
       </c>
     </row>
@@ -6659,7 +6677,7 @@
       <c r="L11" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="51">
         <v>1</v>
       </c>
     </row>
@@ -6781,7 +6799,7 @@
       <c r="J16" s="49"/>
       <c r="K16" s="51"/>
       <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
+      <c r="M16" s="51"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="22" t="s">
@@ -6807,17 +6825,45 @@
       <c r="J17" s="49"/>
       <c r="K17" s="51"/>
       <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="C18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="53"/>
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="2:13" s="58" customFormat="1">
+      <c r="B18" s="58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="I18" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K18" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="L18" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="19" spans="2:13">
       <c r="C19" s="11"/>
@@ -6839,7 +6885,7 @@
       <c r="J20" s="49"/>
       <c r="K20" s="51"/>
       <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
+      <c r="M20" s="51"/>
     </row>
     <row r="21" spans="2:13">
       <c r="C21" s="11"/>
@@ -6850,7 +6896,7 @@
       <c r="J21" s="49"/>
       <c r="K21" s="51"/>
       <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="2:13">
       <c r="C22" s="11"/>
@@ -6889,7 +6935,7 @@
       <c r="J26" s="49"/>
       <c r="K26" s="51"/>
       <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
+      <c r="M26" s="51"/>
     </row>
     <row r="27" spans="2:13">
       <c r="C27" s="11"/>
@@ -6928,7 +6974,7 @@
       <c r="J30" s="49"/>
       <c r="K30" s="51"/>
       <c r="L30" s="49"/>
-      <c r="M30" s="50"/>
+      <c r="M30" s="51"/>
     </row>
     <row r="31" spans="2:13">
       <c r="C31" s="11"/>
@@ -6939,7 +6985,7 @@
       <c r="J31" s="49"/>
       <c r="K31" s="51"/>
       <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="2:13">
       <c r="C32" s="11"/>
@@ -6978,7 +7024,7 @@
       <c r="J36" s="49"/>
       <c r="K36" s="51"/>
       <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="3:13">
       <c r="C37" s="11"/>
@@ -7017,7 +7063,7 @@
       <c r="J40" s="49"/>
       <c r="K40" s="51"/>
       <c r="L40" s="49"/>
-      <c r="M40" s="50"/>
+      <c r="M40" s="51"/>
     </row>
     <row r="41" spans="3:13">
       <c r="C41" s="11"/>
@@ -7028,7 +7074,7 @@
       <c r="J41" s="49"/>
       <c r="K41" s="51"/>
       <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
+      <c r="M41" s="51"/>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="11"/>
@@ -7067,7 +7113,7 @@
       <c r="J46" s="49"/>
       <c r="K46" s="51"/>
       <c r="L46" s="49"/>
-      <c r="M46" s="50"/>
+      <c r="M46" s="51"/>
     </row>
     <row r="47" spans="3:13">
       <c r="C47" s="11"/>
@@ -7106,7 +7152,7 @@
       <c r="J50" s="49"/>
       <c r="K50" s="51"/>
       <c r="L50" s="49"/>
-      <c r="M50" s="50"/>
+      <c r="M50" s="51"/>
     </row>
     <row r="51" spans="3:13">
       <c r="C51" s="11"/>
@@ -7115,7 +7161,7 @@
       <c r="J51" s="49"/>
       <c r="K51" s="51"/>
       <c r="L51" s="49"/>
-      <c r="M51" s="50"/>
+      <c r="M51" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
